--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCE47A-332E-8244-8A5B-9682918A16D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{CF3B6C10-564E-6C47-BF90-881FFD30946E}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel" sheetId="2" r:id="rId1"/>
     <sheet name="Keywords" sheetId="3" r:id="rId2"/>
     <sheet name="CustomUnits" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>givenName</t>
   </si>
@@ -176,22 +175,25 @@
     <t>description</t>
   </si>
   <si>
-    <t>micromolePerMeterSquaredPerDay</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
     <t>molePerMeterSquaredPerDay</t>
   </si>
   <si>
-    <t>micromoles per meter squared per day</t>
+    <t>millimolePerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>millimoles per meter squared per day</t>
+  </si>
+  <si>
+    <t>principalInvestigator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -550,20 +552,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE34D23-6A2F-1B40-8E13-5B7029FB5DC6}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -618,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -647,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -676,18 +678,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -699,12 +707,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -722,27 +730,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -754,31 +753,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{3C924EAE-23DB-FC44-B11F-9D8181C4E41B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B0D07594-A248-DB43-B313-F7B6B1E7F002}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{A5D3B873-D896-E142-A592-9E6C4820010E}"/>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF5D68B-26C3-CF4A-AD51-038276905488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -786,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -794,7 +826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -802,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -810,7 +842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -818,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -826,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -834,7 +866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -848,19 +880,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D43B32-8CAF-2745-823B-E8670DAD0CFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -877,18 +909,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-3</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>givenName</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Wolfe</t>
   </si>
   <si>
-    <t>jawolfe@whoi.edu</t>
-  </si>
-  <si>
     <t>0000-0001-9620-5382</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>keywordThesaurus</t>
   </si>
   <si>
-    <t>inorganic nutrients</t>
-  </si>
-  <si>
     <t>LTER Core Research Areas</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>seawater</t>
   </si>
   <si>
-    <t>nutrients</t>
-  </si>
-  <si>
-    <t>dissolved nutrients</t>
-  </si>
-  <si>
     <t>Rachel</t>
   </si>
   <si>
@@ -188,13 +176,31 @@
   </si>
   <si>
     <t>principalInvestigator</t>
+  </si>
+  <si>
+    <t>primary production</t>
+  </si>
+  <si>
+    <t>dissolved oxygen</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Morkeski</t>
+  </si>
+  <si>
+    <t>kmorkeski@whoi.edu</t>
+  </si>
+  <si>
+    <t>0000-0002-2903-5851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +212,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,12 +245,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -622,19 +636,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -651,19 +665,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -680,22 +694,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -709,10 +723,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -732,10 +746,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -766,14 +780,12 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -785,14 +797,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -800,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -812,67 +854,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -894,36 +926,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580"/>
   </bookViews>
   <sheets>
-    <sheet name="Personnel" sheetId="2" r:id="rId1"/>
-    <sheet name="Keywords" sheetId="3" r:id="rId2"/>
-    <sheet name="CustomUnits" sheetId="4" r:id="rId3"/>
+    <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
+    <sheet name="Personnel" sheetId="2" r:id="rId2"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId3"/>
+    <sheet name="CustomUnits" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>givenName</t>
   </si>
@@ -194,6 +195,30 @@
   </si>
   <si>
     <t>0000-0002-2903-5851</t>
+  </si>
+  <si>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>toi_source</t>
+  </si>
+  <si>
+    <t>toi_niskin</t>
+  </si>
+  <si>
+    <t>sample bottle was filled from a Niskin bottle on CTD rosette</t>
+  </si>
+  <si>
+    <t>toi_underway</t>
+  </si>
+  <si>
+    <t>sample bottle was filled from the ship's underway system</t>
   </si>
 </sst>
 </file>
@@ -567,6 +592,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
@@ -838,11 +911,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -911,7 +984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -170,12 +170,6 @@
     <t>molePerMeterSquaredPerDay</t>
   </si>
   <si>
-    <t>millimolePerMeterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>millimoles per meter squared per day</t>
-  </si>
-  <si>
     <t>principalInvestigator</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>sample bottle was filled from the ship's underway system</t>
+  </si>
+  <si>
+    <t>millimoleOxygenPerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>millimoles oxygen per meter squared per day</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -602,35 +602,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -872,19 +872,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -988,12 +988,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="36.09765625" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1016,7 +1017,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1028,7 +1029,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>givenName</t>
   </si>
@@ -137,12 +137,6 @@
     <t>0000-0003-4860-2476</t>
   </si>
   <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Sandwith</t>
-  </si>
-  <si>
     <t>Kevin</t>
   </si>
   <si>
@@ -219,6 +213,9 @@
   </si>
   <si>
     <t>millimoles oxygen per meter squared per day</t>
+  </si>
+  <si>
+    <t>kcahill@whoi.edu</t>
   </si>
 </sst>
 </file>
@@ -602,35 +599,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -640,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -782,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -796,13 +793,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -819,16 +819,23 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -842,20 +849,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -867,35 +873,6 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -904,10 +881,11 @@
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -935,7 +913,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -967,7 +945,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -988,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1000,36 +978,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-summer-2018-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>givenName</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>kcahill@whoi.edu</t>
+  </si>
+  <si>
+    <t>inorganic matter</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -891,10 +894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -920,16 +923,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -937,7 +940,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -945,17 +948,25 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
